--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>titulo</t>
   </si>
   <si>
@@ -23,9 +26,6 @@
   </si>
   <si>
     <t>materia</t>
-  </si>
-  <si>
-    <t>ano_publicacao</t>
   </si>
   <si>
     <t>descricao</t>
@@ -46,8 +46,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,10 +59,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,16 +82,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -99,17 +99,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,10 +132,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -159,69 +173,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,54 +261,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -302,7 +317,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -311,7 +326,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -320,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,10 +343,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -360,7 +375,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -373,13 +388,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -397,44 +411,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>2024</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -31,16 +31,61 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>Geopolítica da Rússia</t>
-  </si>
-  <si>
-    <t>Diversos (Mackinder, Brzezinski, Longworth, Lincoln, Trenin)</t>
-  </si>
-  <si>
-    <t>Geopolítica</t>
+    <t>Geopolítica e Modernidade</t>
+  </si>
+  <si>
+    <t>MATTOS, Carlos de Meira.</t>
+  </si>
+  <si>
+    <t>Geopolítica e Relações Internacionais</t>
   </si>
   <si>
     <t>Análise geopolítica da Rússia, explorando sua geografia, história imperial e desafios contemporâneos.</t>
+  </si>
+  <si>
+    <t>Vingança da Geografia</t>
+  </si>
+  <si>
+    <t>KAPLAN, Robert.</t>
+  </si>
+  <si>
+    <t>Novas Geopolíticas</t>
+  </si>
+  <si>
+    <t>VESENTINI, José W.</t>
+  </si>
+  <si>
+    <t>Princípios de Relações Internacionais</t>
+  </si>
+  <si>
+    <t>MINGST, Karen A.</t>
+  </si>
+  <si>
+    <t>Uma breve história do século XX</t>
+  </si>
+  <si>
+    <t>BLAINEY, Geoffrey.</t>
+  </si>
+  <si>
+    <t>História</t>
+  </si>
+  <si>
+    <t>Guerra no Mar</t>
+  </si>
+  <si>
+    <t>VIDIGAL, Armando A.</t>
+  </si>
+  <si>
+    <t>História das Guerras</t>
+  </si>
+  <si>
+    <t>MAGNOLI, Demétrio</t>
+  </si>
+  <si>
+    <t>Marinha do Brasil: uma síntese histórica</t>
+  </si>
+  <si>
+    <t>ABREU, Guilherme Mattos de</t>
   </si>
 </sst>
 </file>
@@ -48,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +108,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -72,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,20 +146,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -415,17 +479,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="56.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -449,16 +513,135 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -93,13 +93,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -110,7 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -124,6 +130,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -146,26 +159,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -492,7 +498,7 @@
     <col min="5" max="5" style="6" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -526,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -543,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -560,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -577,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -594,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -611,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -628,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3">
         <v>8</v>
       </c>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -162,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,18 +172,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -232,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -243,14 +237,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,14 +551,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="56.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="86.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="56.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -601,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -618,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -635,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -652,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -669,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -686,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -703,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -720,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -737,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -754,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -771,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -788,11 +779,11 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -805,7 +796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -822,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -839,7 +830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -856,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -873,11 +864,11 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="3" t="s">

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -558,7 +558,7 @@
     <col min="5" max="5" style="5" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -728,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -779,7 +779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -796,7 +796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -830,7 +830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -847,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -864,7 +864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -558,7 +558,7 @@
     <col min="5" max="5" style="5" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -728,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -779,7 +779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -796,7 +796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -830,7 +830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -847,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -864,7 +864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>Direito</t>
+  </si>
+  <si>
+    <t>A Lei da Guerra – Direito Internacional e Conflito Armado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYERS, Michael. </t>
+  </si>
+  <si>
+    <t>Promulga a Carta das Nações Unidas, da qual faz parte integrante o anexo Estatuto da Corte Internacional de Justiça, assinada em São Francisco, a 26 de junho de 1945</t>
+  </si>
+  <si>
+    <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -864,7 +876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -879,6 +891,40 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+  </si>
+  <si>
+    <t>Decreto nº 42.121 – Feridos, Enfermos e Náufragos.</t>
+  </si>
+  <si>
+    <t>Decreto nº 849/1993 – Protocolo I.</t>
+  </si>
+  <si>
+    <t>Decreto nº 849/1993 – Protocolo II.</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -247,6 +256,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -557,17 +572,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="56.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="86.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="56.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -876,7 +891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -893,7 +908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -910,7 +925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -924,6 +939,81 @@
         <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Decreto nº 849/1993 – Protocolo II.</t>
+  </si>
+  <si>
+    <t>Decreto nº 42.121 – Feridos, Enfermos e Náufragosm</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -256,12 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -572,17 +569,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="56.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="86.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="56.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -925,7 +922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -942,7 +939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -959,7 +956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -976,7 +973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -993,27 +990,20 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="1">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -178,7 +178,22 @@
     <t>Decreto nº 849/1993 – Protocolo II.</t>
   </si>
   <si>
-    <t>Decreto nº 42.121 – Feridos, Enfermos e Náufragosm</t>
+    <t>San Remo Manual.</t>
+  </si>
+  <si>
+    <t>Decreto nº 1533/1995 - CNUDM.</t>
+  </si>
+  <si>
+    <t>Decreto nº 154/1991 - Entorpecentes e  Psicotrópicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 678/1992 - Pacto de São José </t>
+  </si>
+  <si>
+    <t>Declaração Universal dos Direitos Humanos.</t>
+  </si>
+  <si>
+    <t>Decreto nº 7.030/2009 - Convenção de Viena</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -259,6 +274,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -569,17 +590,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="56.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="86.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="56.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -990,7 +1011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1004,6 +1025,91 @@
         <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -201,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -276,10 +282,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1011,7 +1017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="4">
         <v>28</v>
       </c>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>Decreto nº 7.030/2009 - Convenção de Viena</t>
+  </si>
+  <si>
+    <t>Economia Brasileira Contemporânea</t>
+  </si>
+  <si>
+    <t>GREMAUD, Amaury Patrick et al.</t>
+  </si>
+  <si>
+    <t>Economia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREMAUD, Amaury Patrick et al. Economia Brasileira Contemporânea. São Paulo: Editora Atlas, 9ª Edição. 2024. </t>
+  </si>
+  <si>
+    <t>Economia Micro e Macro</t>
+  </si>
+  <si>
+    <t>VASCONCELLOS, Marco Antônio Sandoval et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASCONCELLOS, Marco Antônio Sandoval et al. Economia Micro e Macro – Teoria, Exercícios e Casos. São Paulo: Editora Atlas, 7ª Edição. 2023. </t>
+  </si>
+  <si>
+    <t>Economia Azul 2</t>
   </si>
 </sst>
 </file>
@@ -201,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,12 +243,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -282,10 +300,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -596,7 +614,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -609,7 +627,7 @@
     <col min="5" max="5" style="7" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -643,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -660,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -677,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -694,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -711,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -728,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -745,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -762,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -779,7 +797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -796,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -813,7 +831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -830,7 +848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -847,7 +865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -864,7 +882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -881,7 +899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -898,7 +916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -915,7 +933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -932,7 +950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -949,7 +967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -966,7 +984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1034,11 +1052,11 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="4">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1051,11 +1069,11 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="4">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1068,11 +1086,11 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="4">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1085,11 +1103,11 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="4">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1103,10 +1121,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1117,6 +1135,57 @@
       </c>
       <c r="E30" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -225,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +243,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -300,10 +306,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1120,7 +1126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -218,6 +218,33 @@
   </si>
   <si>
     <t>Economia Azul 2</t>
+  </si>
+  <si>
+    <t>Tratado de Estratégia</t>
+  </si>
+  <si>
+    <t>COUTAU-BÉGARIE, Hervé.</t>
+  </si>
+  <si>
+    <t>Estratégia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro: Escola de Guerra Naval, 2010. </t>
+  </si>
+  <si>
+    <t>A contribuição do Almirante Castex</t>
+  </si>
+  <si>
+    <t>WEDIN, Lars.</t>
+  </si>
+  <si>
+    <t>Estratégias Marítimas no Século XXI: A contribuição do Almirante Castex.</t>
+  </si>
+  <si>
+    <t>EMA-310 - Estratégia de Defesa Marítima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ª Edição, Brasília, 2023. </t>
   </si>
 </sst>
 </file>
@@ -225,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,12 +270,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -306,10 +327,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -620,7 +641,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -633,7 +654,7 @@
     <col min="5" max="5" style="7" width="86.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -667,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -684,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -701,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -718,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -735,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -752,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -769,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -786,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -803,7 +824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -820,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -837,7 +858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -854,7 +875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -871,7 +892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -888,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -905,7 +926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -922,7 +943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -939,7 +960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -956,7 +977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -973,7 +994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -990,7 +1011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1007,7 +1028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1024,7 +1045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1041,7 +1062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1075,7 +1096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1092,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1109,7 +1130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1144,40 +1165,40 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1187,11 +1208,62 @@
       <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -853,7 +853,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -295,7 +295,7 @@
     <t xml:space="preserve">1ª Edição, 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Lei nº 11.631/2007 - Lei de Mobilização Nacional</t>
+    <t xml:space="preserve">Lei nº 11.631/2007</t>
   </si>
   <si>
     <t xml:space="preserve">Lei de Mobilização Nacional e Sistema Nacional de Mobilização.</t>
@@ -853,7 +853,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$72</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="150">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -121,7 +124,7 @@
     <t xml:space="preserve">Política Nacional de Defesa</t>
   </si>
   <si>
-    <t xml:space="preserve">Lei Complementar nº 97(org, prep, emp FA)</t>
+    <t xml:space="preserve">Lei Complementar nº 97</t>
   </si>
   <si>
     <t xml:space="preserve">BRASIL. </t>
@@ -193,7 +196,7 @@
     <t xml:space="preserve">Decreto nº 154/1991 - Entorpecentes e  Psicotrópicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Decreto nº 678/1992 - Pacto de São José </t>
+    <t xml:space="preserve">Decreto nº 678/1992 - Pacto de São José</t>
   </si>
   <si>
     <t xml:space="preserve">Declaração Universal dos Direitos Humanos.</t>
@@ -449,6 +452,27 @@
   </si>
   <si>
     <t xml:space="preserve">2017. (cap. 3 a 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei Complementar nº 97 – Planejamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispõe sobre as normas gerais para a organização, o preparo e o emprego das Forças Armadas. Art. 15 a 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decreto nº 7.276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispõe sobre a Estrutura Militar de Defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 84/GM-MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispõe sobre a "Doutrina de Operações Conjuntas"MD30-M-01</t>
   </si>
 </sst>
 </file>
@@ -611,6 +635,47 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF8000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD7D7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFD7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -672,6 +737,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,15 +919,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="53.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="56.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="44.86"/>
@@ -2038,7 +2107,59 @@
         <v>142</v>
       </c>
     </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2046,5 +2167,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Direito</t>
   </si>
   <si>
-    <t xml:space="preserve">A Lei da Guerra – Direito Internacional e Conflito Armado.</t>
+    <t xml:space="preserve">Lei da Guerra</t>
   </si>
   <si>
     <t xml:space="preserve">BYERS, Michael. </t>
@@ -921,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1546,7 +1546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/bibliografias.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="152">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -469,10 +469,16 @@
     <t xml:space="preserve">Dispõe sobre a Estrutura Militar de Defesa.</t>
   </si>
   <si>
-    <t xml:space="preserve">Portaria Normativa nº 84/GM-MD</t>
+    <t xml:space="preserve">Portaria Normativa nº 84/GM-MD 1º Vol</t>
   </si>
   <si>
     <t xml:space="preserve">Dispõe sobre a "Doutrina de Operações Conjuntas"MD30-M-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portaria Normativa nº 84/GM-MD 2º Vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispõe sobre a "Doutrina de Operações Conjuntas"MD30-M-01 – 2 Vol</t>
   </si>
 </sst>
 </file>
@@ -919,10 +925,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2158,6 +2164,23 @@
         <v>149</v>
       </c>
     </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
